--- a/data/PT Emergency Medicine Case Study.xlsx
+++ b/data/PT Emergency Medicine Case Study.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsimo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C12954-FB33-4D9B-98E0-196154F2A344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Databases" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Default Labs  Interventions" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="DDx" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Case Info" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="CSV Case Info" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="GoalsTasks" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Flow chart" sheetId="7" r:id="rId10"/>
+    <sheet name="Databases" sheetId="1" r:id="rId1"/>
+    <sheet name="Default Labs  Interventions" sheetId="2" r:id="rId2"/>
+    <sheet name="DDx" sheetId="3" r:id="rId3"/>
+    <sheet name="Case Info" sheetId="4" r:id="rId4"/>
+    <sheet name="CSV Case Info" sheetId="5" r:id="rId5"/>
+    <sheet name="GoalsTasks" sheetId="6" r:id="rId6"/>
+    <sheet name="Flow chart" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="772">
   <si>
     <t>v1 11/20/19</t>
   </si>
@@ -2318,57 +2327,167 @@
   </si>
   <si>
     <t>Grading screen</t>
+  </si>
+  <si>
+    <t>Fak E. Case</t>
+  </si>
+  <si>
+    <t>winky eyes</t>
+  </si>
+  <si>
+    <t>Jimmy Simonse</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>jsimonse9@gmail.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>A dark and shady history 1</t>
+  </si>
+  <si>
+    <t>A darker and shadier history 2</t>
+  </si>
+  <si>
+    <t>Cat cuddles</t>
+  </si>
+  <si>
+    <t>Adderol</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Wears oversized pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No rhinoceruses
+</t>
+  </si>
+  <si>
+    <t>Ny algae</t>
+  </si>
+  <si>
+    <t>Ready to diffuse</t>
+  </si>
+  <si>
+    <t>Vampire bites</t>
+  </si>
+  <si>
+    <t>Brusing on nose hairs</t>
+  </si>
+  <si>
+    <t>Constantly drinks vodka</t>
+  </si>
+  <si>
+    <t>Anxious about clowns</t>
+  </si>
+  <si>
+    <t>Paper like thinness</t>
+  </si>
+  <si>
+    <t>pettasatus</t>
+  </si>
+  <si>
+    <t>Supple nose and left ear</t>
+  </si>
+  <si>
+    <t>Normal S1, S2, S3</t>
+  </si>
+  <si>
+    <t>Has two lungs</t>
+  </si>
+  <si>
+    <t>Has two arms</t>
+  </si>
+  <si>
+    <t>Dry Eyes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2376,7 +2495,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2398,115 +2517,109 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
@@ -2517,11 +2630,17 @@
     <xdr:ext cx="3152775" cy="1447800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2538,20 +2657,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2741,25 +2848,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="19.29"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2782,7 +2892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2820,7 +2930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2849,7 +2959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,7 +2994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2904,7 +3014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2942,7 +3052,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
@@ -2983,12 +3093,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -3011,40 +3121,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>268</v>
       </c>
@@ -3052,7 +3162,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>272</v>
       </c>
@@ -3136,7 +3246,7 @@
       </c>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -3204,32 +3314,33 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
       <c r="L60" s="1" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="29.29"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="6" max="6" width="17.57"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3322,7 +3433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -3399,7 +3510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -3446,7 +3557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -3484,7 +3595,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -3522,7 +3633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>119</v>
       </c>
@@ -3551,7 +3662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1">
+    <row r="9" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>127</v>
       </c>
@@ -3571,7 +3682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>133</v>
       </c>
@@ -3591,7 +3702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>141</v>
       </c>
@@ -3605,7 +3716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>144</v>
       </c>
@@ -3622,7 +3733,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>151</v>
       </c>
@@ -3633,7 +3744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>155</v>
       </c>
@@ -3650,7 +3761,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>160</v>
       </c>
@@ -3670,7 +3781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>165</v>
       </c>
@@ -3687,7 +3798,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -3737,7 +3848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -3802,7 +3913,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="J23" s="1" t="s">
         <v>212</v>
       </c>
@@ -3831,7 +3942,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M24" s="1" t="s">
         <v>224</v>
       </c>
@@ -3854,7 +3965,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M25" s="1" t="s">
         <v>237</v>
       </c>
@@ -3877,7 +3988,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M26" s="1" t="s">
         <v>245</v>
       </c>
@@ -3900,7 +4011,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M27" s="1" t="s">
         <v>252</v>
       </c>
@@ -3923,7 +4034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S28" s="1" t="s">
         <v>260</v>
       </c>
@@ -3940,7 +4051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S29" s="1" t="s">
         <v>136</v>
       </c>
@@ -3954,7 +4065,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S30" s="1" t="s">
         <v>276</v>
       </c>
@@ -3962,7 +4073,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S31" s="1" t="s">
         <v>282</v>
       </c>
@@ -3970,7 +4081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S32" s="1" t="s">
         <v>286</v>
       </c>
@@ -3978,7 +4089,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S33" s="1" t="s">
         <v>290</v>
       </c>
@@ -3986,12 +4097,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S34" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S35" s="1" t="s">
         <v>299</v>
       </c>
@@ -4002,7 +4113,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S36" s="1" t="s">
         <v>307</v>
       </c>
@@ -4013,7 +4124,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="S37" s="1" t="s">
         <v>312</v>
       </c>
@@ -4025,31 +4136,32 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.71"/>
-    <col customWidth="1" min="2" max="2" width="26.86"/>
-    <col customWidth="1" min="3" max="3" width="41.57"/>
-    <col customWidth="1" min="4" max="4" width="36.57"/>
-    <col customWidth="1" min="5" max="5" width="34.14"/>
-    <col customWidth="1" min="6" max="6" width="30.43"/>
-    <col customWidth="1" min="7" max="7" width="33.14"/>
-    <col customWidth="1" min="8" max="8" width="24.29"/>
+    <col min="1" max="1" width="31.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="36.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34.08984375" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.08984375" customWidth="1"/>
+    <col min="8" max="8" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4061,7 +4173,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4071,7 +4183,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -4095,7 +4207,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>115</v>
       </c>
@@ -4119,7 +4231,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>149</v>
       </c>
@@ -4143,7 +4255,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>161</v>
       </c>
@@ -4167,7 +4279,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>183</v>
       </c>
@@ -4191,7 +4303,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>192</v>
       </c>
@@ -4215,7 +4327,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>222</v>
       </c>
@@ -4239,7 +4351,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>238</v>
       </c>
@@ -4263,7 +4375,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>253</v>
       </c>
@@ -4287,7 +4399,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>270</v>
       </c>
@@ -4311,7 +4423,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>189</v>
       </c>
@@ -4333,7 +4445,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>314</v>
       </c>
@@ -4353,7 +4465,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>326</v>
       </c>
@@ -4373,7 +4485,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>335</v>
       </c>
@@ -4393,7 +4505,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>349</v>
       </c>
@@ -4415,7 +4527,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -4435,7 +4547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4455,7 +4567,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -4475,7 +4587,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>371</v>
       </c>
@@ -4497,7 +4609,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>377</v>
       </c>
@@ -4517,7 +4629,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>382</v>
       </c>
@@ -4539,7 +4651,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>388</v>
       </c>
@@ -4559,7 +4671,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>393</v>
       </c>
@@ -4581,7 +4693,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>399</v>
       </c>
@@ -4603,7 +4715,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>405</v>
       </c>
@@ -4625,7 +4737,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>411</v>
       </c>
@@ -4643,7 +4755,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>415</v>
       </c>
@@ -4661,7 +4773,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>419</v>
       </c>
@@ -4681,7 +4793,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>223</v>
       </c>
@@ -4705,7 +4817,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>428</v>
       </c>
@@ -4729,7 +4841,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>435</v>
       </c>
@@ -4753,7 +4865,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>314</v>
       </c>
@@ -4777,7 +4889,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>448</v>
       </c>
@@ -4799,7 +4911,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>156</v>
       </c>
@@ -4823,7 +4935,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>189</v>
       </c>
@@ -4847,7 +4959,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>342</v>
       </c>
@@ -4871,7 +4983,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>377</v>
       </c>
@@ -4895,7 +5007,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>382</v>
       </c>
@@ -4919,7 +5031,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>388</v>
       </c>
@@ -4941,7 +5053,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>393</v>
       </c>
@@ -4963,7 +5075,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>399</v>
       </c>
@@ -4983,7 +5095,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>532</v>
       </c>
@@ -5003,7 +5115,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>411</v>
       </c>
@@ -5021,7 +5133,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>415</v>
       </c>
@@ -5041,7 +5153,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>419</v>
       </c>
@@ -5061,7 +5173,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>223</v>
       </c>
@@ -5081,7 +5193,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>428</v>
       </c>
@@ -5099,7 +5211,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>435</v>
       </c>
@@ -5121,7 +5233,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>314</v>
       </c>
@@ -5143,7 +5255,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>448</v>
       </c>
@@ -5163,7 +5275,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>156</v>
       </c>
@@ -5183,7 +5295,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>189</v>
       </c>
@@ -5203,7 +5315,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>342</v>
       </c>
@@ -5223,7 +5335,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="15" t="s">
         <v>616</v>
@@ -5241,7 +5353,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>632</v>
       </c>
@@ -5259,7 +5371,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>273</v>
       </c>
@@ -5277,7 +5389,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>641</v>
       </c>
@@ -5295,7 +5407,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>645</v>
       </c>
@@ -5311,7 +5423,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>646</v>
       </c>
@@ -5329,7 +5441,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>601</v>
       </c>
@@ -5347,7 +5459,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>195</v>
       </c>
@@ -5365,7 +5477,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>364</v>
       </c>
@@ -5383,7 +5495,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>659</v>
       </c>
@@ -5401,7 +5513,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>356</v>
       </c>
@@ -5419,7 +5531,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>665</v>
       </c>
@@ -5435,7 +5547,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>668</v>
       </c>
@@ -5451,7 +5563,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="17" t="s">
@@ -5465,7 +5577,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="17" t="s">
@@ -5479,7 +5591,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="17" t="s">
@@ -5491,7 +5603,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
@@ -5503,7 +5615,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
@@ -5515,7 +5627,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="17" t="s">
@@ -5527,7 +5639,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
@@ -5539,7 +5651,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
@@ -5551,7 +5663,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
@@ -5563,7 +5675,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
@@ -5575,7 +5687,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
@@ -5587,7 +5699,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
@@ -5599,7 +5711,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
@@ -5611,7 +5723,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5621,7 +5733,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5631,7 +5743,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5641,7 +5753,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5651,7 +5763,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5661,7 +5773,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5671,7 +5783,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5682,21 +5794,24 @@
       <c r="H88" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BX7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AY3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>554</v>
       </c>
@@ -5875,9 +5990,9 @@
       <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>451</v>
@@ -5889,10 +6004,10 @@
         <v>455</v>
       </c>
       <c r="E2" s="24">
-        <v>43780.0</v>
+        <v>43780</v>
       </c>
       <c r="F2" s="24">
-        <v>43780.0</v>
+        <v>43780</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>480</v>
@@ -5904,7 +6019,7 @@
         <v>482</v>
       </c>
       <c r="L2" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>485</v>
@@ -5982,19 +6097,19 @@
         <v>518</v>
       </c>
       <c r="AO2" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="AP2" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AQ2" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AR2" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AS2" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>378</v>
@@ -6036,37 +6151,187 @@
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E3" s="24">
+        <v>43792</v>
+      </c>
+      <c r="F3" s="24">
+        <v>43792</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="L3">
+        <v>937</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD3" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="AG3" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK3" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN3">
+        <v>37</v>
+      </c>
+      <c r="AO3">
+        <v>129</v>
+      </c>
+      <c r="AP3">
+        <v>69</v>
+      </c>
+      <c r="AQ3">
+        <v>99</v>
+      </c>
+      <c r="AR3">
+        <v>19</v>
+      </c>
+      <c r="AS3">
+        <v>98</v>
+      </c>
+      <c r="AT3" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="AV3" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW3" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="AX3" s="26" t="s">
+        <v>624</v>
+      </c>
       <c r="AY3" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AK7" s="1" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="BK1"/>
+    <hyperlink ref="BK1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{8F463A94-B979-4D46-8383-60405AA028D1}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>451</v>
@@ -6078,10 +6343,10 @@
         <v>455</v>
       </c>
       <c r="E1" s="24">
-        <v>43780.0</v>
+        <v>43780</v>
       </c>
       <c r="F1" s="24">
-        <v>43780.0</v>
+        <v>43780</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>480</v>
@@ -6093,7 +6358,7 @@
         <v>482</v>
       </c>
       <c r="L1" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>485</v>
@@ -6171,19 +6436,19 @@
         <v>518</v>
       </c>
       <c r="AO1" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="AP1" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AQ1" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AR1" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AS1" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>378</v>
@@ -6204,26 +6469,179 @@
         <v>528</v>
       </c>
     </row>
+    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" s="24">
+        <v>43792</v>
+      </c>
+      <c r="F2" s="24">
+        <v>43792</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="L2">
+        <v>937</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF2" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="AH2" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="AI2" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK2" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN2">
+        <v>37</v>
+      </c>
+      <c r="AO2">
+        <v>129</v>
+      </c>
+      <c r="AP2">
+        <v>69</v>
+      </c>
+      <c r="AQ2">
+        <v>99</v>
+      </c>
+      <c r="AR2">
+        <v>19</v>
+      </c>
+      <c r="AS2">
+        <v>98</v>
+      </c>
+      <c r="AT2" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="AU2" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="AV2" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW2" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="AX2" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{3E8E5F80-52F8-4CD0-A0DF-95AC63DD0161}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.57"/>
-    <col customWidth="1" min="4" max="4" width="19.14"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>669</v>
       </c>
@@ -6231,7 +6649,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>674</v>
       </c>
@@ -6242,95 +6660,96 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>690</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.14"/>
-    <col customWidth="1" min="2" max="2" width="5.14"/>
-    <col customWidth="1" min="3" max="3" width="39.14"/>
-    <col customWidth="1" min="4" max="4" width="5.57"/>
-    <col customWidth="1" min="5" max="5" width="54.71"/>
-    <col customWidth="1" min="6" max="6" width="4.43"/>
-    <col customWidth="1" min="7" max="7" width="27.0"/>
-    <col customWidth="1" min="8" max="8" width="5.71"/>
-    <col customWidth="1" min="9" max="9" width="29.43"/>
-    <col customWidth="1" min="10" max="10" width="5.71"/>
-    <col customWidth="1" min="11" max="11" width="31.29"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" customWidth="1"/>
+    <col min="5" max="5" width="54.7265625" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" customWidth="1"/>
+    <col min="11" max="11" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="18" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>708</v>
       </c>
@@ -6347,7 +6766,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>198</v>
       </c>
@@ -6376,7 +6795,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>709</v>
       </c>
@@ -6390,7 +6809,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>709</v>
       </c>
@@ -6404,7 +6823,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>709</v>
       </c>
@@ -6415,7 +6834,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>715</v>
       </c>
@@ -6429,7 +6848,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>709</v>
       </c>
@@ -6443,7 +6862,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>709</v>
       </c>
@@ -6451,7 +6870,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>727</v>
       </c>
@@ -6471,7 +6890,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="18" t="s">
         <v>715</v>
       </c>
@@ -6480,7 +6899,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
         <v>709</v>
       </c>
@@ -6491,32 +6910,32 @@
         <v>733</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="18" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="18" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K18" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K19" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K20" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>709</v>
       </c>
@@ -6533,7 +6952,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>709</v>
       </c>
@@ -6557,6 +6976,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/PT Emergency Medicine Case Study.xlsx
+++ b/data/PT Emergency Medicine Case Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsimo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\court\OneDrive\Documents\GitHub\em-quiz-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C12954-FB33-4D9B-98E0-196154F2A344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{68C12954-FB33-4D9B-98E0-196154F2A344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2312BAF-1FE6-45E6-9D80-863F52DF7DF9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="771">
   <si>
     <t>v1 11/20/19</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patient Name</t>
   </si>
   <si>
     <t>Chief Complaint</t>
@@ -2860,16 +2857,18 @@
   </sheetPr>
   <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" customWidth="1"/>
+    <col min="4" max="4" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2892,417 +2891,417 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="H52" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="K52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M52" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="O52" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="U52" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W52" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X52" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="Y52" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Y52" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="Z52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA52" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="B53" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="F53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="H53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="K53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="M53" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="P53" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R53" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="S53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -3314,9 +3313,9 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" x14ac:dyDescent="0.35">
       <c r="L60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3333,14 +3332,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.265625" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="6" max="6" width="17.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3383,756 +3382,756 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="J23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="M24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="M25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="O25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="M26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="M27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="S28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="S29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="V22" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y22" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA22" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="J23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="M24" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="M25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="M26" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="M27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="S28" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="S29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="V29" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S30" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S31" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="19:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S33" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="19:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S34" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="19:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S35" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="19:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S36" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="19:21" ht="12.5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="19:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="S37" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4149,19 +4148,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="41.54296875" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.08984375" customWidth="1"/>
-    <col min="8" max="8" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="31.73046875" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" customWidth="1"/>
+    <col min="3" max="3" width="41.53125" customWidth="1"/>
+    <col min="4" max="4" width="36.53125" customWidth="1"/>
+    <col min="5" max="5" width="34.06640625" customWidth="1"/>
+    <col min="6" max="6" width="30.46484375" customWidth="1"/>
+    <col min="7" max="7" width="33.06640625" customWidth="1"/>
+    <col min="8" max="8" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4173,7 +4172,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -4183,1419 +4182,1419 @@
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>171</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>189</v>
-      </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>209</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="F15" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="20" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="B21" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="22" t="s">
         <v>395</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>396</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="16" t="s">
         <v>412</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>413</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
+      <c r="A29" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>416</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>421</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
       <c r="G30" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="G32" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="E33" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="G33" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G35" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="F36" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="G36" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="F37" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="G37" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="G38" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="G39" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="F42" s="13" t="s">
         <v>522</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>523</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="D44" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="5"/>
       <c r="F45" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>541</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>542</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="F48" s="13" t="s">
         <v>548</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>549</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>553</v>
-      </c>
       <c r="D50" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>556</v>
-      </c>
       <c r="F50" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
       <c r="A57" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="25.9" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>647</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>660</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>661</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="5"/>
       <c r="F67" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="5"/>
       <c r="F68" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
       <c r="F69" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="5"/>
       <c r="F70" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="5"/>
@@ -5603,11 +5602,11 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="5"/>
@@ -5615,11 +5614,11 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="5"/>
@@ -5627,11 +5626,11 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="5"/>
@@ -5639,11 +5638,11 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="5"/>
@@ -5651,11 +5650,11 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="5"/>
@@ -5663,11 +5662,11 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
@@ -5675,11 +5674,11 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="5"/>
@@ -5687,11 +5686,11 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="5"/>
@@ -5699,11 +5698,11 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="5"/>
@@ -5711,11 +5710,11 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="5"/>
@@ -5723,7 +5722,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5733,7 +5732,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5743,7 +5742,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5753,7 +5752,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5763,7 +5762,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5773,7 +5772,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5783,7 +5782,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5809,199 +5808,199 @@
       <selection activeCell="A3" sqref="A3:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="V1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="AV1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="BC1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="BG1" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="BK1" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
     </row>
-    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E2" s="24">
         <v>43780</v>
@@ -6010,91 +6009,91 @@
         <v>43780</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="L2" s="1">
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="AF2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="AO2" s="1">
         <v>130</v>
@@ -6112,57 +6111,57 @@
         <v>99</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="BB2" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BC2" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="BE2" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="BG2" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
     </row>
-    <row r="3" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" t="s">
         <v>744</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>745</v>
-      </c>
-      <c r="D3" t="s">
-        <v>746</v>
       </c>
       <c r="E3" s="24">
         <v>43792</v>
@@ -6171,97 +6170,97 @@
         <v>43792</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>747</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>748</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>749</v>
       </c>
       <c r="L3">
         <v>937</v>
       </c>
       <c r="M3" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>750</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="O3" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="P3" s="26" t="s">
         <v>752</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="Q3" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="S3" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="T3" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="U3" s="28" t="s">
         <v>757</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="V3" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="V3" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="W3" s="26" t="s">
+      <c r="X3" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="X3" s="26" t="s">
+      <c r="Y3" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Z3" s="26" t="s">
         <v>761</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="AA3" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AB3" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AC3" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AD3" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AE3" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AF3" s="26" t="s">
         <v>767</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AG3" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AH3" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="AH3" s="26" t="s">
-        <v>770</v>
-      </c>
       <c r="AI3" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AK3" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AL3" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="AL3" s="26" t="s">
+      <c r="AM3" s="26" t="s">
         <v>516</v>
-      </c>
-      <c r="AM3" s="26" t="s">
-        <v>517</v>
       </c>
       <c r="AN3">
         <v>37</v>
@@ -6282,27 +6281,27 @@
         <v>98</v>
       </c>
       <c r="AT3" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU3" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV3" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW3" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="AW3" s="26" t="s">
+      <c r="AX3" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="AX3" s="26" t="s">
-        <v>624</v>
-      </c>
       <c r="AY3" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6323,24 +6322,24 @@
   </sheetPr>
   <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E1" s="24">
         <v>43780</v>
@@ -6349,91 +6348,91 @@
         <v>43780</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="L1" s="1">
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="AO1" s="1">
         <v>130</v>
@@ -6451,36 +6450,36 @@
         <v>99</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2" t="s">
         <v>744</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>745</v>
-      </c>
-      <c r="D2" t="s">
-        <v>746</v>
       </c>
       <c r="E2" s="24">
         <v>43792</v>
@@ -6489,97 +6488,97 @@
         <v>43792</v>
       </c>
       <c r="G2" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>747</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>748</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>749</v>
       </c>
       <c r="L2">
         <v>937</v>
       </c>
       <c r="M2" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>750</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>752</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="S2" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="U2" s="28" t="s">
         <v>757</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="V2" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="W2" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="V2" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="W2" s="26" t="s">
+      <c r="X2" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="Y2" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Z2" s="26" t="s">
         <v>761</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="AA2" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AB2" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AC2" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AD2" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AE2" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AF2" s="26" t="s">
         <v>767</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AG2" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AH2" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="AH2" s="26" t="s">
-        <v>770</v>
-      </c>
       <c r="AI2" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AK2" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AL2" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AM2" s="26" t="s">
         <v>516</v>
-      </c>
-      <c r="AM2" s="26" t="s">
-        <v>517</v>
       </c>
       <c r="AN2">
         <v>37</v>
@@ -6600,22 +6599,22 @@
         <v>98</v>
       </c>
       <c r="AT2" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AU2" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AV2" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW2" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="AW2" s="26" t="s">
+      <c r="AX2" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="AX2" s="26" t="s">
-        <v>624</v>
-      </c>
       <c r="AY2" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -6635,79 +6634,79 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.53125" customWidth="1"/>
+    <col min="4" max="4" width="19.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>675</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -6724,255 +6723,255 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
-    <col min="2" max="2" width="5.08984375" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" customWidth="1"/>
-    <col min="5" max="5" width="54.7265625" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.06640625" customWidth="1"/>
+    <col min="2" max="2" width="5.06640625" customWidth="1"/>
+    <col min="3" max="3" width="39.06640625" customWidth="1"/>
+    <col min="4" max="4" width="5.53125" customWidth="1"/>
+    <col min="5" max="5" width="54.73046875" customWidth="1"/>
+    <col min="6" max="6" width="4.46484375" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" customWidth="1"/>
-    <col min="11" max="11" width="31.26953125" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" customWidth="1"/>
+    <col min="9" max="9" width="29.46484375" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" customWidth="1"/>
+    <col min="11" max="11" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E3" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="18" t="s">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G8" s="18" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="F9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G11" s="18" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>729</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="I13" s="18" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="K15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="18" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K16" s="18" t="s">
+    <row r="17" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="18" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K17" s="18" t="s">
+    <row r="18" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="1" t="s">
+    <row r="19" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="19" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="1" t="s">
+    <row r="20" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="1" t="s">
+    <row r="21" spans="4:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="21" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>743</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
